--- a/lookup_records/csv/bcp/Ht_Wt_Worksheet.xlsx
+++ b/lookup_records/csv/bcp/Ht_Wt_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beaur\Google Drive\Coding\Python\2021-USMC-Calculator-Website\lookup_records\csv\bcp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04FE5D7-FE5D-4BB8-BA5D-323A899D9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C445E4-D095-4993-B48A-FD6F42E90AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -570,7 +570,7 @@
     <col min="7" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>52</v>
       </c>
@@ -613,12 +613,8 @@
         <v>73</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2">
-        <f>IF(NOT(A2&gt;100)*OR(NOT(A2&lt;73)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>53</v>
       </c>
@@ -639,12 +635,8 @@
         <v>76</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3">
-        <f>IF(NOT(A2&gt;104)*OR(NOT(A2&lt;76)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>54</v>
       </c>
@@ -665,12 +657,8 @@
         <v>79</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4">
-        <f>IF(NOT(A2&gt;108)*OR(NOT(A2&lt;79)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>55</v>
       </c>
@@ -691,12 +679,8 @@
         <v>82</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5">
-        <f>IF(NOT(A2&gt;112)*OR(NOT(A2&lt;82)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>56</v>
       </c>
@@ -717,12 +701,8 @@
         <v>85</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6">
-        <f>IF(NOT(A2&gt;115)*OR(NOT(A2&lt;85)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>57</v>
       </c>
@@ -743,12 +723,8 @@
         <v>88</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7">
-        <f>IF(NOT(A2&gt;120)*OR(NOT(A2&lt;88)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>58</v>
       </c>
@@ -769,12 +745,8 @@
         <v>91</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8">
-        <f>IF(NOT(A2&gt;124)*OR(NOT(A2&lt;91)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>59</v>
       </c>
@@ -795,12 +767,8 @@
         <v>94</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9">
-        <f>IF(NOT(A2&gt;129)*OR(NOT(A2&lt;94)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>60</v>
       </c>
@@ -821,12 +789,8 @@
         <v>97</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10">
-        <f>IF(NOT(A2&gt;133)*OR(NOT(A2&lt;97)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>61</v>
       </c>
@@ -847,12 +811,8 @@
         <v>100</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11">
-        <f>IF(NOT(A2&gt;137)*OR(NOT(A2&lt;100)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>62</v>
       </c>
@@ -873,12 +833,8 @@
         <v>104</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12">
-        <f>IF(NOT(A2&gt;142)*OR(NOT(A2&lt;104)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>63</v>
       </c>
@@ -899,12 +855,8 @@
         <v>107</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13">
-        <f>IF(NOT(A2&gt;146)*OR(NOT(A2&lt;107)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>64</v>
       </c>
@@ -925,12 +877,8 @@
         <v>110</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14">
-        <f>IF(NOT(A2&gt;151)*OR(NOT(A2&lt;110)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>65</v>
       </c>
@@ -951,12 +899,8 @@
         <v>114</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15">
-        <f>IF(NOT(A2&gt;156)*OR(NOT(A2&lt;114)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>66</v>
       </c>
@@ -977,12 +921,8 @@
         <v>117</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16">
-        <f>IF(NOT(A2&gt;161)*OR(NOT(A2&lt;117)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>67</v>
       </c>
@@ -1003,12 +943,8 @@
         <v>121</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17">
-        <f>IF(NOT(A2&gt;166)*OR(NOT(A2&lt;121)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>68</v>
       </c>
@@ -1029,12 +965,8 @@
         <v>125</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18">
-        <f>IF(NOT(A2&gt;171)*OR(NOT(A2&lt;125)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>69</v>
       </c>
@@ -1055,12 +987,8 @@
         <v>128</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19">
-        <f>IF(NOT(A2&gt;176)*OR(NOT(A2&lt;128)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>70</v>
       </c>
@@ -1081,12 +1009,8 @@
         <v>132</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20">
-        <f>IF(NOT(A2&gt;181)*OR(NOT(A2&lt;132)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>71</v>
       </c>
@@ -1107,12 +1031,8 @@
         <v>136</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21">
-        <f>IF(NOT(A2&gt;186)*OR(NOT(A2&lt;136)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>72</v>
       </c>
@@ -1133,12 +1053,8 @@
         <v>140</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22">
-        <f>IF(NOT(A2&gt;191)*OR(NOT(A2&lt;140)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>73</v>
       </c>
@@ -1159,12 +1075,8 @@
         <v>144</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23">
-        <f>IF(NOT(A2&gt;197)*OR(NOT(A2&lt;144)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>74</v>
       </c>
@@ -1185,12 +1097,8 @@
         <v>148</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24">
-        <f>IF(NOT(A2&gt;202)*OR(NOT(A2&lt;148)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>75</v>
       </c>
@@ -1211,12 +1119,8 @@
         <v>152</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25">
-        <f>IF(NOT(A2&gt;208)*OR(NOT(A2&lt;152)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>76</v>
       </c>
@@ -1237,12 +1141,8 @@
         <v>156</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26">
-        <f>IF(NOT(A2&gt;213)*OR(NOT(A2&lt;156)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>77</v>
       </c>
@@ -1263,12 +1163,8 @@
         <v>160</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27">
-        <f>IF(NOT(A2&gt;219)*OR(NOT(A2&lt;160)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>78</v>
       </c>
@@ -1289,12 +1185,8 @@
         <v>164</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28">
-        <f>IF(NOT(A2&gt;225)*OR(NOT(A2&lt;164)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>79</v>
       </c>
@@ -1315,12 +1207,8 @@
         <v>168</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29">
-        <f>IF(NOT(A2&gt;230)*OR(NOT(A2&lt;168)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>80</v>
       </c>
@@ -1341,12 +1229,8 @@
         <v>173</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30">
-        <f>IF(NOT(A2&gt;236)*OR(NOT(A2&lt;173)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>81</v>
       </c>
@@ -1367,12 +1251,8 @@
         <v>177</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31">
-        <f>IF(NOT(A2&gt;242)*OR(NOT(A2&lt;177)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>82</v>
       </c>
@@ -1393,12 +1273,8 @@
         <v>182</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32">
-        <f>IF(NOT(A2&gt;248)*OR(NOT(A2&lt;182)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>83</v>
       </c>
@@ -1419,12 +1295,8 @@
         <v>186</v>
       </c>
       <c r="H33" s="4"/>
-      <c r="I33">
-        <f>IF(NOT(A2&gt;255)*OR(NOT(A2&lt;186)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>84</v>
       </c>
@@ -1445,12 +1317,8 @@
         <v>191</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="I34">
-        <f>IF(NOT(A2&gt;261)*OR(NOT(A2&lt;191)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>85</v>
       </c>
@@ -1471,12 +1339,8 @@
         <v>195</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35">
-        <f>IF(NOT(A2&gt;267)*OR(NOT(A2&lt;195)),1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>86</v>
       </c>
@@ -1497,10 +1361,6 @@
         <v>200</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36">
-        <f>IF(NOT(A2&gt;274)*OR(NOT(A2&lt;200)),1,0)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
